--- a/public/data/Solicitacoes.xlsx
+++ b/public/data/Solicitacoes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gondaski-my.sharepoint.com/personal/marcela_marques_macponta_com_br/Documents/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{A216503E-EFAC-456F-84CA-36A0B68E0F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F48407F2-8F89-49CC-93BA-F356635460D8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4278139-166C-440B-8237-1FC9EBC932B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E4EC53F-DB7F-45DA-BF76-0467C1252C4F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$R$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,12 +34,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="245">
   <si>
     <t>STATUS</t>
   </si>
@@ -765,6 +768,15 @@
   </si>
   <si>
     <t>1CQFA25AES0160153</t>
+  </si>
+  <si>
+    <t>CIDADE CUSTOS</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>TIBAGI</t>
   </si>
 </sst>
 </file>
@@ -832,7 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -880,6 +892,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1221,10 +1236,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D85A332-45F0-4741-A23F-0F9547EABC06}">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1237,17 +1254,17 @@
     <col min="6" max="6" width="11.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.77734375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="42.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="2" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="15.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="45.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="56.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="2"/>
+    <col min="15" max="16" width="19.109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1299,8 +1316,11 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -1350,8 +1370,11 @@
       <c r="Q2" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
@@ -1401,8 +1424,11 @@
       <c r="Q3" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -1452,8 +1478,11 @@
       <c r="Q4" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -1503,8 +1532,11 @@
       <c r="Q5" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
@@ -1554,8 +1586,11 @@
       <c r="Q6" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>40</v>
       </c>
@@ -1605,8 +1640,11 @@
       <c r="Q7" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -1656,8 +1694,11 @@
       <c r="Q8" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>40</v>
       </c>
@@ -1707,8 +1748,11 @@
       <c r="Q9" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -1758,8 +1802,11 @@
       <c r="Q10" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -1809,8 +1856,11 @@
       <c r="Q11" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -1860,8 +1910,11 @@
       <c r="Q12" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -1911,8 +1964,11 @@
       <c r="Q13" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -1962,8 +2018,11 @@
       <c r="Q14" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -2013,8 +2072,11 @@
       <c r="Q15" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
@@ -2064,8 +2126,11 @@
       <c r="Q16" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>59</v>
       </c>
@@ -2115,8 +2180,11 @@
       <c r="Q17" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -2166,8 +2234,11 @@
       <c r="Q18" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -2216,8 +2287,11 @@
       <c r="Q19" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -2267,8 +2341,11 @@
       <c r="Q20" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -2318,8 +2395,11 @@
       <c r="Q21" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -2369,8 +2449,11 @@
       <c r="Q22" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -2420,8 +2503,11 @@
       <c r="Q23" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
@@ -2471,8 +2557,11 @@
       <c r="Q24" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
@@ -2522,8 +2611,11 @@
       <c r="Q25" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
@@ -2573,8 +2665,11 @@
       <c r="Q26" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -2624,8 +2719,11 @@
       <c r="Q27" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R27" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
@@ -2674,8 +2772,11 @@
       <c r="Q28" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
@@ -2725,8 +2826,11 @@
       <c r="Q29" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R29" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
@@ -2776,8 +2880,11 @@
       <c r="Q30" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R30" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
@@ -2827,8 +2934,11 @@
       <c r="Q31" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R31" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -2878,8 +2988,11 @@
       <c r="Q32" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R32" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
@@ -2929,8 +3042,11 @@
       <c r="Q33" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>40</v>
       </c>
@@ -2980,8 +3096,11 @@
       <c r="Q34" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R34" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>226</v>
       </c>
@@ -3028,8 +3147,11 @@
       <c r="Q35" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R35" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>27</v>
       </c>
@@ -3076,8 +3198,11 @@
       <c r="Q36" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R36" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>27</v>
       </c>
@@ -3090,7 +3215,9 @@
       <c r="D37" s="2">
         <v>106</v>
       </c>
-      <c r="E37" s="13"/>
+      <c r="E37" s="13">
+        <v>636</v>
+      </c>
       <c r="F37" s="13"/>
       <c r="G37" s="2" t="s">
         <v>157</v>
@@ -3122,8 +3249,11 @@
       <c r="Q37" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R37" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
@@ -3136,7 +3266,9 @@
       <c r="D38" s="2">
         <v>84</v>
       </c>
-      <c r="E38" s="13"/>
+      <c r="E38" s="13">
+        <v>504</v>
+      </c>
       <c r="F38" s="13"/>
       <c r="G38" s="2" t="s">
         <v>161</v>
@@ -3168,8 +3300,11 @@
       <c r="Q38" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R38" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>27</v>
       </c>
@@ -3182,7 +3317,9 @@
       <c r="D39" s="2">
         <v>420</v>
       </c>
-      <c r="E39" s="13"/>
+      <c r="E39" s="13">
+        <v>2520</v>
+      </c>
       <c r="F39" s="13"/>
       <c r="G39" s="2" t="s">
         <v>176</v>
@@ -3214,8 +3351,11 @@
       <c r="Q39" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R39" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>54</v>
       </c>
@@ -3228,7 +3368,9 @@
       <c r="D40" s="2">
         <v>478</v>
       </c>
-      <c r="E40" s="13"/>
+      <c r="E40" s="13">
+        <v>2868</v>
+      </c>
       <c r="G40" s="2" t="s">
         <v>181</v>
       </c>
@@ -3259,8 +3401,11 @@
       <c r="Q40" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R40" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>54</v>
       </c>
@@ -3273,7 +3418,9 @@
       <c r="D41" s="2">
         <v>478</v>
       </c>
-      <c r="E41" s="13"/>
+      <c r="E41" s="13">
+        <v>2868</v>
+      </c>
       <c r="G41" s="2" t="s">
         <v>184</v>
       </c>
@@ -3304,8 +3451,11 @@
       <c r="Q41" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R41" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>54</v>
       </c>
@@ -3351,8 +3501,11 @@
       <c r="Q42" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R42" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
@@ -3398,8 +3551,11 @@
       <c r="Q43" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R43" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>203</v>
       </c>
@@ -3410,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="13">
-        <v>0</v>
+        <v>1122</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="2" t="s">
@@ -3440,8 +3596,11 @@
       <c r="P44" s="16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R44" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>27</v>
       </c>
@@ -3454,7 +3613,9 @@
       <c r="D45" s="2">
         <v>22</v>
       </c>
-      <c r="E45" s="13"/>
+      <c r="E45" s="13">
+        <v>132</v>
+      </c>
       <c r="F45" s="13"/>
       <c r="G45" s="2" t="s">
         <v>195</v>
@@ -3486,8 +3647,11 @@
       <c r="Q45" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R45" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>27</v>
       </c>
@@ -3500,7 +3664,9 @@
       <c r="D46" s="2">
         <v>22</v>
       </c>
-      <c r="E46" s="13"/>
+      <c r="E46" s="13">
+        <v>132</v>
+      </c>
       <c r="F46" s="13"/>
       <c r="G46" s="2" t="s">
         <v>198</v>
@@ -3532,8 +3698,11 @@
       <c r="Q46" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R46" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>27</v>
       </c>
@@ -3546,7 +3715,9 @@
       <c r="D47" s="2">
         <v>22</v>
       </c>
-      <c r="E47" s="13"/>
+      <c r="E47" s="13">
+        <v>132</v>
+      </c>
       <c r="F47" s="13"/>
       <c r="G47" s="2" t="s">
         <v>199</v>
@@ -3578,8 +3749,11 @@
       <c r="Q47" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R47" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>27</v>
       </c>
@@ -3592,6 +3766,9 @@
       <c r="D48" s="2">
         <v>22</v>
       </c>
+      <c r="E48" s="13">
+        <v>132</v>
+      </c>
       <c r="G48" s="2" t="s">
         <v>187</v>
       </c>
@@ -3622,8 +3799,11 @@
       <c r="Q48" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R48" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>27</v>
       </c>
@@ -3636,7 +3816,9 @@
       <c r="D49" s="2">
         <v>22</v>
       </c>
-      <c r="E49" s="13"/>
+      <c r="E49" s="13">
+        <v>132</v>
+      </c>
       <c r="G49" s="2" t="s">
         <v>191</v>
       </c>
@@ -3667,8 +3849,11 @@
       <c r="Q49" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R49" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>27</v>
       </c>
@@ -3681,7 +3866,9 @@
       <c r="D50" s="2">
         <v>22</v>
       </c>
-      <c r="E50" s="13"/>
+      <c r="E50" s="13">
+        <v>132</v>
+      </c>
       <c r="G50" s="2" t="s">
         <v>192</v>
       </c>
@@ -3712,8 +3899,11 @@
       <c r="Q50" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R50" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>54</v>
       </c>
@@ -3724,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="13">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>200</v>
@@ -3753,8 +3943,11 @@
       <c r="P51" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R51" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>203</v>
       </c>
@@ -3765,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="13">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>205</v>
@@ -3800,8 +3993,11 @@
       <c r="Q52" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R52" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>203</v>
       </c>
@@ -3812,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="13">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>209</v>
@@ -3847,8 +4043,11 @@
       <c r="Q53" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R53" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -3894,8 +4093,11 @@
       <c r="Q54" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R54" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -3941,8 +4143,11 @@
       <c r="Q55" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R55" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -3991,8 +4196,11 @@
       <c r="Q56" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R56" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>54</v>
       </c>
@@ -4041,8 +4249,11 @@
       <c r="Q57" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R57" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>203</v>
       </c>
@@ -4053,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="13">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>151</v>
@@ -4085,8 +4296,11 @@
       <c r="Q58" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R58" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>203</v>
       </c>
@@ -4097,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="13">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>156</v>
@@ -4129,8 +4343,11 @@
       <c r="Q59" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R59" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>203</v>
       </c>
@@ -4141,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="13">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>213</v>
@@ -4176,8 +4393,11 @@
       <c r="Q60" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R60" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>203</v>
       </c>
@@ -4188,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="13">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>216</v>
@@ -4223,8 +4443,11 @@
       <c r="Q61" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R61" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>203</v>
       </c>
@@ -4235,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="13">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>217</v>
@@ -4270,8 +4493,11 @@
       <c r="Q62" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R62" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>203</v>
       </c>
@@ -4282,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="13">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>205</v>
@@ -4314,8 +4540,11 @@
       <c r="Q63" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R63" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>203</v>
       </c>
@@ -4326,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="13">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>209</v>
@@ -4358,8 +4587,11 @@
       <c r="Q64" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R64" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>203</v>
       </c>
@@ -4370,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="13">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>185</v>
@@ -4402,8 +4634,11 @@
       <c r="Q65" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R65" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>203</v>
       </c>
@@ -4414,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="13">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>186</v>
@@ -4446,8 +4681,11 @@
       <c r="Q66" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R66" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>203</v>
       </c>
@@ -4458,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="13">
-        <v>0</v>
+        <v>1716</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>205</v>
@@ -4490,8 +4728,11 @@
       <c r="Q67" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R67" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>203</v>
       </c>
@@ -4502,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="13">
-        <v>0</v>
+        <v>1716</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>209</v>
@@ -4534,8 +4775,11 @@
       <c r="Q68" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R68" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>203</v>
       </c>
@@ -4546,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="13">
-        <v>0</v>
+        <v>1716</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>185</v>
@@ -4578,8 +4822,11 @@
       <c r="Q69" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R69" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>203</v>
       </c>
@@ -4590,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="13">
-        <v>0</v>
+        <v>1716</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>186</v>
@@ -4622,8 +4869,11 @@
       <c r="Q70" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R70" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>230</v>
       </c>
@@ -4669,8 +4919,11 @@
       <c r="Q71" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R71" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>230</v>
       </c>
@@ -4716,8 +4969,11 @@
       <c r="Q72" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R72" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>230</v>
       </c>
@@ -4763,8 +5019,11 @@
       <c r="Q73" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R73" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>230</v>
       </c>
@@ -4810,13 +5069,12 @@
       <c r="Q74" s="2" t="s">
         <v>240</v>
       </c>
+      <c r="R74" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1" xr:uid="{8D85A332-45F0-4741-A23F-0F9547EABC06}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q74">
-      <sortCondition ref="H1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:R1" xr:uid="{8D85A332-45F0-4741-A23F-0F9547EABC06}"/>
   <hyperlinks>
     <hyperlink ref="P6" r:id="rId1" xr:uid="{21ED5BAE-F9CE-4763-962B-A9834DE3B654}"/>
     <hyperlink ref="P42" r:id="rId2" xr:uid="{A9216B6F-1D81-4784-A954-CCA37F6CEEAA}"/>
